--- a/docs/assets/disciplinas/LOM3203.xlsx
+++ b/docs/assets/disciplinas/LOM3203.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>A disciplina tem por objetivo apresentar a tecnologia de automação fazendo com que o aluno, ao estudar um processo produtivo, seja capaz de ajudar a definir o tipo e o nível adequado de automação. Introdução aos princípios e técnicas de controle, visando a síntese e análise de controladores para sistemas dinâmicos, notadamente os mecânicos, térmicos e fluídicos, usando abordagens do controle clássico e do controle moderno.</t>
+    <t>5982760 - Carlos Alberto Baldan</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5982760 - Carlos Alberto Baldan</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Fundamentos de teoria de controle. Tipos de controladores. Simulação. Introdução aos sistemas de controle e automação industriais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,11 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução de conceitos fundamentais; variáveis de estado e representação no domínio das frequências; controle em malha aberta e malha fechada; resposta transitória e regime permanente; projeto de controladores para sistemas com excitações externas; projeto de sistemas de controle auxiliados por computador; controladores industriais eletrônicos: pneumáticos e hidráulicos; controladores PID; Método de Ziegler e Nichols; alocação de polos no domínio da frequência; análise de estabilidade absoluta: critério de Routh; análise de erros em regime permanente: Classificação de sistemas e análise da resposta em regime permanente; análise de sistemas pelo lugar das raízes; análise no domínio das frequências: métodos de Bode e Nyquist; estabilidade relativa: margens de ganho e fase; projeto de compensadores; noções de robustez e sensibilidade.
-Sistemas de produção e automação. Sistemas discretos. CLP e CNC. Sistemas CAD/CAM. Integração de processos. CIM.
-Prática: aulas de laboratório para aprendizagem de métodos numéricos para o desenvolvimento, análise e simulação de controladores utilizando softwares adequados.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -108,32 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>O curso é desenvolvido através de aulas expositivas e práticas em laboratório.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>OGATA, K. Engenharia de Controle Moderno, Prentice-Hall, 1997.
-DORF, R.C.; Bishop, R.H. Modern Control Systems, Addison-Wesley, 1995.
-D'AZZO; HOUPIS. Análise e Projeto de Sistema de Controle Lineares, Guanabara Dois, 1984.
-KUO, B.C. Automatic Control Systems, 5th ed., Prentice-Hall, 1987.
-COUGHANOWR; KOPPEL. Análise e Controle de Processos, Guanabara Dois, 1978.
-DISTEFANO, J. J.; STUBBERUD, A. R.; WILLIANS, I. J. Theory and Problems of Feedback and Control Systems with Applications to the Engineering, Physical and Life Sciences, McGraw-Hill, 1976.
-PHILLIPS, C.L.; Harbor, R.D. Sistemas de Controle e Realimentação, Makron Books, 1996.
-GROOVER, M. P.; ZIMMERS Jr., E. W. CAD/CAM - Computer-aided design and manufacturing. Prentice-Hall, Englewood Ciffs, 1984.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -500,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
